--- a/data/financial_statements/soci/SO.xlsx
+++ b/data/financial_statements/soci/SO.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,144 +601,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>8378000000</v>
+        <v>8375000000</v>
       </c>
       <c r="C2">
-        <v>7206000000</v>
+        <v>7221000000</v>
       </c>
       <c r="D2">
-        <v>6648000000</v>
+        <v>6646000000</v>
       </c>
       <c r="E2">
-        <v>5767000000</v>
+        <v>5762000000</v>
       </c>
       <c r="F2">
-        <v>6238000000</v>
+        <v>6240000000</v>
       </c>
       <c r="G2">
         <v>5198000000</v>
@@ -733,23 +844,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.3431</v>
+        <v>0.3421</v>
       </c>
       <c r="C3">
-        <v>0.3863</v>
+        <v>0.3892</v>
       </c>
       <c r="D3">
-        <v>0.1249</v>
+        <v>0.1245</v>
       </c>
       <c r="E3">
-        <v>0.127</v>
+        <v>0.1261</v>
       </c>
       <c r="F3">
-        <v>0.11</v>
+        <v>0.1103</v>
       </c>
       <c r="G3">
         <v>0.1251</v>
@@ -855,23 +966,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>3454000000</v>
+        <v>5921000000</v>
       </c>
       <c r="C4">
-        <v>2689000000</v>
+        <v>5139000000</v>
       </c>
       <c r="D4">
-        <v>2507000000</v>
+        <v>4938000000</v>
       </c>
       <c r="E4">
-        <v>2123000000</v>
+        <v>4856000000</v>
       </c>
       <c r="F4">
-        <v>1722000000</v>
+        <v>4087000000</v>
       </c>
       <c r="G4">
         <v>1399000000</v>
@@ -977,23 +1088,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>4924000000</v>
+        <v>2454000000</v>
       </c>
       <c r="C5">
-        <v>4517000000</v>
+        <v>2082000000</v>
       </c>
       <c r="D5">
-        <v>4141000000</v>
+        <v>1708000000</v>
       </c>
       <c r="E5">
-        <v>3644000000</v>
+        <v>906000000</v>
       </c>
       <c r="F5">
-        <v>4516000000</v>
+        <v>2153000000</v>
       </c>
       <c r="G5">
         <v>3799000000</v>
@@ -1099,8 +1210,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>1899000000</v>
@@ -1221,8 +1332,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>2193000000</v>
@@ -1343,8 +1454,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>399000000</v>
@@ -1384,8 +1495,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>511000000</v>
@@ -1506,23 +1617,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>-292000000</v>
+        <v>231000000</v>
       </c>
       <c r="C10">
-        <v>-262000000</v>
+        <v>361000000</v>
       </c>
       <c r="D10">
-        <v>-220000000</v>
+        <v>308000000</v>
       </c>
       <c r="E10">
-        <v>-236000000</v>
+        <v>1090000000</v>
       </c>
       <c r="F10">
-        <v>-241000000</v>
+        <v>601000000</v>
       </c>
       <c r="G10">
         <v>-344000000</v>
@@ -1628,8 +1739,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>1901000000</v>
@@ -1641,7 +1752,7 @@
         <v>1164000000</v>
       </c>
       <c r="E11">
-        <v>-567000000</v>
+        <v>-566000000</v>
       </c>
       <c r="F11">
         <v>1482000000</v>
@@ -1750,8 +1861,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>414000000</v>
@@ -1872,8 +1983,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>1487000000</v>
@@ -1994,8 +2105,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>3000000</v>
@@ -2116,8 +2227,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>12000000</v>
@@ -2199,8 +2310,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>1472000000</v>
@@ -2321,14 +2432,14 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="C17">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="D17">
         <v>0.97</v>
@@ -2337,7 +2448,7 @@
         <v>-0.2</v>
       </c>
       <c r="F17">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="G17">
         <v>0.35</v>
@@ -2443,8 +2554,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1.36</v>
@@ -2459,7 +2570,7 @@
         <v>-0.2</v>
       </c>
       <c r="F18">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="G18">
         <v>0.35</v>
@@ -2565,8 +2676,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>1082000000</v>
@@ -2578,7 +2689,7 @@
         <v>1063000000</v>
       </c>
       <c r="E19">
-        <v>1061000000</v>
+        <v>1099000000</v>
       </c>
       <c r="F19">
         <v>1061000000</v>
@@ -2687,8 +2798,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>1088000000</v>
@@ -2700,7 +2811,7 @@
         <v>1069000000</v>
       </c>
       <c r="E20">
-        <v>1068000000</v>
+        <v>1099000000</v>
       </c>
       <c r="F20">
         <v>1068000000</v>
@@ -2809,23 +2920,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0.5877</v>
+        <v>0.293</v>
       </c>
       <c r="C21">
-        <v>0.6268</v>
+        <v>0.2883</v>
       </c>
       <c r="D21">
-        <v>0.6229</v>
+        <v>0.257</v>
       </c>
       <c r="E21">
-        <v>0.6319</v>
+        <v>0.1572</v>
       </c>
       <c r="F21">
-        <v>0.7239</v>
+        <v>0.345</v>
       </c>
       <c r="G21">
         <v>0.7309</v>
@@ -2931,14 +3042,14 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.2618</v>
+        <v>0.2619</v>
       </c>
       <c r="C22">
-        <v>0.2297</v>
+        <v>0.2292</v>
       </c>
       <c r="D22">
         <v>0.2082</v>
@@ -2947,7 +3058,7 @@
         <v>-0.0574</v>
       </c>
       <c r="F22">
-        <v>0.2762</v>
+        <v>0.2761</v>
       </c>
       <c r="G22">
         <v>0.1362</v>
@@ -3053,23 +3164,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.2269</v>
+        <v>0.227</v>
       </c>
       <c r="C23">
-        <v>0.1933</v>
+        <v>0.1929</v>
       </c>
       <c r="D23">
         <v>0.1751</v>
       </c>
       <c r="E23">
-        <v>-0.0983</v>
+        <v>-0.0982</v>
       </c>
       <c r="F23">
-        <v>0.2376</v>
+        <v>0.2375</v>
       </c>
       <c r="G23">
         <v>0.07000000000000001</v>
@@ -3175,23 +3286,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.1757</v>
+        <v>0.1758</v>
       </c>
       <c r="C24">
-        <v>0.1536</v>
+        <v>0.1533</v>
       </c>
       <c r="D24">
-        <v>0.1552</v>
+        <v>0.1553</v>
       </c>
       <c r="E24">
         <v>-0.0373</v>
       </c>
       <c r="F24">
-        <v>0.1765</v>
+        <v>0.1764</v>
       </c>
       <c r="G24">
         <v>0.0716</v>
@@ -3297,23 +3408,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>3282000000</v>
+        <v>3190000000</v>
       </c>
       <c r="C25">
-        <v>2661000000</v>
+        <v>2743000000</v>
       </c>
       <c r="D25">
-        <v>2373000000</v>
+        <v>2327000000</v>
       </c>
       <c r="E25">
-        <v>698000000</v>
+        <v>1617000000</v>
       </c>
       <c r="F25">
-        <v>2718000000</v>
+        <v>2839000000</v>
       </c>
       <c r="G25">
         <v>1693000000</v>
@@ -3419,8 +3530,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>2193000000</v>
@@ -3541,8 +3652,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>1487000000</v>
@@ -3663,8 +3774,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>1487000000</v>
@@ -3676,7 +3787,7 @@
         <v>991000000</v>
       </c>
       <c r="E28">
-        <v>-284000000</v>
+        <v>-283000000</v>
       </c>
       <c r="F28">
         <v>1110000000</v>
@@ -3785,8 +3896,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>1.3743</v>
@@ -3907,8 +4018,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>1.3667</v>
@@ -4029,8 +4140,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>1.3743</v>
@@ -4151,8 +4262,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>1.3667</v>
@@ -4273,8 +4384,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>1082000000</v>
@@ -4395,23 +4506,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>0.3917</v>
+        <v>0.3809</v>
       </c>
       <c r="C34">
-        <v>0.3693</v>
+        <v>0.3799</v>
       </c>
       <c r="D34">
-        <v>0.3569</v>
+        <v>0.3501</v>
       </c>
       <c r="E34">
-        <v>0.121</v>
+        <v>0.2806</v>
       </c>
       <c r="F34">
-        <v>0.4357</v>
+        <v>0.455</v>
       </c>
       <c r="G34">
         <v>0.3257</v>
@@ -4517,23 +4628,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>0.1716</v>
+        <v>0.1717</v>
       </c>
       <c r="C35">
-        <v>0.2757</v>
+        <v>0.2752</v>
       </c>
       <c r="D35">
         <v>0.2395</v>
       </c>
       <c r="E35">
-        <v>0.1887</v>
+        <v>0.1888</v>
       </c>
       <c r="F35">
-        <v>0.349</v>
+        <v>0.3489</v>
       </c>
       <c r="G35">
         <v>0.3197</v>
